--- a/Counters_result.xlsx
+++ b/Counters_result.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Counters_result" localSheetId="0">Лист1!$A$1:$G$21</definedName>
+    <definedName name="Counters_result_1" localSheetId="0">Лист1!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -20,8 +20,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Counters_result" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr codePage="866" sourceFile="C:\Users\Enjeru\Мфти\Java\untitled\Counters_result.csv" decimal="," thousands=" " comma="1">
+  <connection id="1" name="Counters_result1" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="C:\Users\Enjeru\Мфти\Java\untitled\Counters_result.csv" decimal="," thousands=" " tab="0" delimiter=",">
       <textFields count="7">
         <textField/>
         <textField/>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -296,11 +296,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -314,6 +358,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -329,7 +377,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Counters_result" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Counters_result_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,7 +670,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,28 +739,28 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1076072.6273970001</v>
+        <v>82463342.557745993</v>
       </c>
       <c r="F2">
-        <v>19043.549487</v>
+        <v>32716.144991000001</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
-      <c r="K2" s="11">
-        <v>1076072.6273970001</v>
-      </c>
-      <c r="L2" s="2">
-        <v>322818.82020700001</v>
-      </c>
-      <c r="M2" s="11">
-        <v>682633.62227099994</v>
-      </c>
-      <c r="N2" s="3">
-        <v>350838.77425000002</v>
+      <c r="K2" s="16">
+        <v>82463342.557745993</v>
+      </c>
+      <c r="L2" s="14">
+        <v>32275061.583354998</v>
+      </c>
+      <c r="M2" s="16">
+        <v>68294589.428057</v>
+      </c>
+      <c r="N2" s="15">
+        <v>32748578.981842</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -729,10 +777,10 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>304559.476234</v>
+        <v>33462468.337196998</v>
       </c>
       <c r="F3">
-        <v>2720.8922859999998</v>
+        <v>762529.90461500001</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -741,16 +789,16 @@
         <v>2</v>
       </c>
       <c r="K3" s="11">
-        <v>234019.248662</v>
+        <v>24808551.780159</v>
       </c>
       <c r="L3" s="2">
-        <v>138060.42728100001</v>
+        <v>14724414.594682001</v>
       </c>
       <c r="M3" s="11">
-        <v>116710.893562</v>
+        <v>11698853.796925999</v>
       </c>
       <c r="N3" s="3">
-        <v>2290.2965669999999</v>
+        <v>273985.25222600001</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -767,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>234019.248662</v>
+        <v>24808551.780159</v>
       </c>
       <c r="F4">
-        <v>5442.1640239999997</v>
+        <v>1914605.8883219999</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -779,16 +827,16 @@
         <v>4</v>
       </c>
       <c r="K4" s="11">
-        <v>271529.78613600001</v>
+        <v>27530995.316916</v>
       </c>
       <c r="L4" s="2">
-        <v>170075.060554</v>
+        <v>16354885.713667</v>
       </c>
       <c r="M4" s="11">
-        <v>87944.932757999995</v>
+        <v>8857623.9682190008</v>
       </c>
       <c r="N4" s="3">
-        <v>2148.7971219999999</v>
+        <v>215691.81005599999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -805,10 +853,10 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>271529.78613600001</v>
+        <v>27530995.316916</v>
       </c>
       <c r="F5">
-        <v>314.84895299999999</v>
+        <v>173054.99047300001</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -817,16 +865,16 @@
         <v>8</v>
       </c>
       <c r="K5" s="11">
-        <v>304905.35021200002</v>
+        <v>30434814.877841</v>
       </c>
       <c r="L5" s="2">
-        <v>174368.966625</v>
+        <v>16017586.345391</v>
       </c>
       <c r="M5" s="11">
-        <v>61248.642012999997</v>
+        <v>6107850.5640510004</v>
       </c>
       <c r="N5" s="3">
-        <v>2179.765343</v>
+        <v>217842.78449799999</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -843,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>304905.35021200002</v>
+        <v>30434814.877841</v>
       </c>
       <c r="F6">
-        <v>1060.199883</v>
+        <v>79962.359482</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -855,16 +903,16 @@
         <v>16</v>
       </c>
       <c r="K6" s="12">
-        <v>304559.476234</v>
+        <v>33462468.337196998</v>
       </c>
       <c r="L6" s="5">
-        <v>169865.42301299999</v>
+        <v>15888276.007727001</v>
       </c>
       <c r="M6" s="12">
-        <v>58397.290420999998</v>
+        <v>6088186.2564989999</v>
       </c>
       <c r="N6" s="6">
-        <v>2179.1485910000001</v>
+        <v>215765.79142200001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -881,10 +929,10 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>682633.62227099994</v>
+        <v>68294589.428057</v>
       </c>
       <c r="F7">
-        <v>689.20595500000002</v>
+        <v>48375.398851999998</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -904,10 +952,10 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>58397.290420999998</v>
+        <v>6088186.2564989999</v>
       </c>
       <c r="F8">
-        <v>1457.9223030000001</v>
+        <v>118747.70658300001</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -927,10 +975,10 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>116710.893562</v>
+        <v>11698853.796925999</v>
       </c>
       <c r="F9">
-        <v>1309.2952190000001</v>
+        <v>242924.740922</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -950,10 +998,10 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>87944.932757999995</v>
+        <v>8857623.9682190008</v>
       </c>
       <c r="F10">
-        <v>2046.6513829999999</v>
+        <v>133596.93067100001</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -973,10 +1021,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>61248.642012999997</v>
+        <v>6107850.5640510004</v>
       </c>
       <c r="F11">
-        <v>712.19590400000004</v>
+        <v>43794.921012999999</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -996,10 +1044,10 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>350838.77425000002</v>
+        <v>32748578.981842</v>
       </c>
       <c r="F12">
-        <v>561.35306500000002</v>
+        <v>23241.814648</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -1019,10 +1067,10 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>2179.1485910000001</v>
+        <v>215765.79142200001</v>
       </c>
       <c r="F13">
-        <v>15.598993</v>
+        <v>1898.029227</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -1042,10 +1090,10 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>2290.2965669999999</v>
+        <v>273985.25222600001</v>
       </c>
       <c r="F14">
-        <v>120.899411</v>
+        <v>104337.190198</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -1065,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>2148.7971219999999</v>
+        <v>215691.81005599999</v>
       </c>
       <c r="F15">
-        <v>16.787811999999999</v>
+        <v>618.74667199999999</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1088,10 +1136,10 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>2179.765343</v>
+        <v>217842.78449799999</v>
       </c>
       <c r="F16">
-        <v>14.261825999999999</v>
+        <v>1143.0973389999999</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -1111,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>322818.82020700001</v>
+        <v>32275061.583354998</v>
       </c>
       <c r="F17">
-        <v>398.216407</v>
+        <v>53407.289086999997</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1134,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>169865.42301299999</v>
+        <v>15888276.007727001</v>
       </c>
       <c r="F18">
-        <v>2969.6070100000002</v>
+        <v>84073.749840999997</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -1157,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>138060.42728100001</v>
+        <v>14724414.594682001</v>
       </c>
       <c r="F19">
-        <v>14475.426476000001</v>
+        <v>664156.466426</v>
       </c>
       <c r="G19" t="s">
         <v>9</v>
@@ -1180,10 +1228,10 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>170075.060554</v>
+        <v>16354885.713667</v>
       </c>
       <c r="F20">
-        <v>1176.1573080000001</v>
+        <v>289310.45621500001</v>
       </c>
       <c r="G20" t="s">
         <v>9</v>
@@ -1203,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>174368.966625</v>
+        <v>16017586.345391</v>
       </c>
       <c r="F21">
-        <v>11238.845597</v>
+        <v>168375.851876</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
